--- a/asset-list.xlsx
+++ b/asset-list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blickflo\Documents\DockerPython Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blickflo\Documents\SanTrix Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A1CA56-C1A2-48EE-85DB-99BFFF418833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15915CE0-5E1B-4526-BD3D-86FD09F16969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1320" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>JD-0410DE-2</t>
   </si>
   <si>
-    <t>ABER VK BLEIBT GLEICH</t>
-  </si>
-  <si>
     <t>A17350</t>
   </si>
   <si>
@@ -221,18 +218,12 @@
     <t>A48142</t>
   </si>
   <si>
-    <t>Apple BG ETEM - Apple iPhone 14 128GB Midnight</t>
-  </si>
-  <si>
     <t>APPLE</t>
   </si>
   <si>
     <t>MPUF3ZD/A</t>
   </si>
   <si>
-    <t>APPLE BG ETEM - APPLE IPHONE 14 128GB MIDNIGHT</t>
-  </si>
-  <si>
     <t>A01123</t>
   </si>
   <si>
@@ -465,6 +456,15 @@
   </si>
   <si>
     <t>BOSE HEADSET KABELLOS</t>
+  </si>
+  <si>
+    <t>Apple iPhone 14 128GB Midnight</t>
+  </si>
+  <si>
+    <t>APPLE IPHONE 14 128GB MIDNIGHT</t>
+  </si>
+  <si>
+    <t>Cherry B.UNLIMITED</t>
   </si>
 </sst>
 </file>
@@ -830,18 +830,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,7 +861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -872,7 +872,7 @@
         <v>7857</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -881,7 +881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -898,587 +898,587 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
       </c>
       <c r="C4">
         <v>1571</v>
       </c>
       <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
       </c>
       <c r="C5">
         <v>1556</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
       </c>
       <c r="C6">
         <v>1347</v>
       </c>
       <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
       </c>
       <c r="C7">
         <v>1242</v>
       </c>
       <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
       </c>
       <c r="C8">
         <v>1229</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
       </c>
       <c r="C9">
         <v>1125</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
       </c>
       <c r="C10">
         <v>1116</v>
       </c>
       <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
       </c>
       <c r="C11">
         <v>1102</v>
       </c>
       <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>50</v>
       </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
       </c>
       <c r="C12">
         <v>991</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
         <v>54</v>
       </c>
-      <c r="F12" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
       </c>
       <c r="C13">
         <v>846</v>
       </c>
       <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
         <v>58</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>59</v>
       </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>61</v>
-      </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="C14">
         <v>794</v>
       </c>
       <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>63</v>
       </c>
-      <c r="E14" t="s">
+      <c r="B15" t="s">
         <v>64</v>
-      </c>
-      <c r="F14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
       </c>
       <c r="C15">
         <v>706</v>
       </c>
       <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>68</v>
       </c>
-      <c r="E15" t="s">
+      <c r="B16" t="s">
         <v>69</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" t="s">
-        <v>72</v>
       </c>
       <c r="C16">
         <v>636</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
         <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
       </c>
       <c r="C17">
         <v>539</v>
       </c>
       <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>77</v>
       </c>
-      <c r="E17" t="s">
+      <c r="B18" t="s">
         <v>78</v>
-      </c>
-      <c r="F17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" t="s">
-        <v>81</v>
       </c>
       <c r="C18">
         <v>497</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C19">
         <v>460</v>
       </c>
       <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>85</v>
       </c>
-      <c r="E19" t="s">
+      <c r="B20" t="s">
         <v>86</v>
-      </c>
-      <c r="F19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" t="s">
-        <v>89</v>
       </c>
       <c r="C20">
         <v>398</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
         <v>90</v>
-      </c>
-      <c r="F20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" t="s">
-        <v>93</v>
       </c>
       <c r="C21">
         <v>347</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
         <v>94</v>
-      </c>
-      <c r="F21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" t="s">
-        <v>97</v>
       </c>
       <c r="C22">
         <v>342</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C23">
         <v>339</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s">
         <v>101</v>
-      </c>
-      <c r="F23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" t="s">
-        <v>104</v>
       </c>
       <c r="C24">
         <v>329</v>
       </c>
       <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>105</v>
       </c>
-      <c r="E24" t="s">
+      <c r="B25" t="s">
         <v>106</v>
-      </c>
-      <c r="F24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" t="s">
-        <v>109</v>
       </c>
       <c r="C25">
         <v>327</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" t="s">
         <v>110</v>
-      </c>
-      <c r="F25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" t="s">
-        <v>113</v>
       </c>
       <c r="C26">
         <v>309</v>
       </c>
       <c r="D26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>114</v>
       </c>
-      <c r="E26" t="s">
+      <c r="B27" t="s">
         <v>115</v>
-      </c>
-      <c r="F26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" t="s">
-        <v>118</v>
       </c>
       <c r="C27">
         <v>308</v>
       </c>
       <c r="D27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>119</v>
       </c>
-      <c r="E27" t="s">
+      <c r="B28" t="s">
         <v>120</v>
-      </c>
-      <c r="F27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" t="s">
-        <v>123</v>
       </c>
       <c r="C28">
         <v>306</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" t="s">
         <v>124</v>
-      </c>
-      <c r="F28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" t="s">
-        <v>127</v>
       </c>
       <c r="C29">
         <v>304</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s">
         <v>128</v>
-      </c>
-      <c r="F29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" t="s">
-        <v>131</v>
       </c>
       <c r="C30">
         <v>302</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C31">
         <v>999</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>136</v>
       </c>
-      <c r="F31" t="s">
+      <c r="B32" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>139</v>
-      </c>
-      <c r="B32" t="s">
-        <v>140</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F32" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
